--- a/StructureDefinition-ObsPesoPediatrico.xlsx
+++ b/StructureDefinition-ObsPesoPediatrico.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="463">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/ObsPesoPediatrico</t>
+    <t>https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/ObsPesoPediatrico</t>
   </si>
   <si>
     <t>Version</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -121,132 +121,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: SNOMED CT Concept Domain Binding</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: SNOMED CT Attribute Binding</t>
   </si>
   <si>
     <t>Vital Signs
@@ -1719,10 +1593,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1911,7 +1785,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP59"/>
+  <dimension ref="A1:AP58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1924,11 +1798,10 @@
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="13.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="111.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1939,7160 +1812,7032 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="51.1328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.67578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.0859375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="16.20703125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="30.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="AN1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="M1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>76</v>
+      <c r="AO1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H6" t="s" s="2">
+      <c r="L6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>212</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>280</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>280</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q27" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q27" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>110</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q28" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>315</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="M29" t="s" s="2">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>334</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>342</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>325</v>
+        <v>91</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>353</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>356</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>188</v>
+        <v>326</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>350</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>361</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>363</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>366</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>368</v>
+        <v>146</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>381</v>
+        <v>38</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>384</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>188</v>
+        <v>353</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>390</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>402</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>376</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>411</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>413</v>
+        <v>245</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>414</v>
+        <v>246</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>412</v>
+        <v>248</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>418</v>
+        <v>38</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>419</v>
+        <v>38</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>420</v>
+        <v>249</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>135</v>
+        <v>382</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>137</v>
+        <v>383</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>294</v>
+        <v>384</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>297</v>
+        <v>385</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>291</v>
+        <v>91</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>424</v>
+        <v>38</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>136</v>
+        <v>387</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>133</v>
+        <v>392</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>429</v>
+        <v>146</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>403</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>432</v>
+        <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>438</v>
+        <v>323</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>188</v>
+        <v>414</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>453</v>
+        <v>38</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>454</v>
+        <v>38</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>446</v>
+        <v>38</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>447</v>
+        <v>38</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>365</v>
+        <v>418</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>456</v>
+        <v>245</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>457</v>
+        <v>420</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>459</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>287</v>
+        <v>424</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>469</v>
+        <v>434</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>473</v>
+        <v>371</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>477</v>
+        <v>442</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>478</v>
+        <v>443</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>413</v>
+        <v>245</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>479</v>
+        <v>246</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>478</v>
+        <v>248</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>483</v>
+        <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>484</v>
+        <v>249</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>135</v>
+        <v>382</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>137</v>
+        <v>383</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>294</v>
+        <v>384</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>297</v>
+        <v>385</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>291</v>
+        <v>91</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>424</v>
+        <v>38</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>139</v>
+        <v>449</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>489</v>
+        <v>452</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>490</v>
+        <v>229</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>271</v>
+        <v>457</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>495</v>
+        <v>458</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="P56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>496</v>
+        <v>38</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>278</v>
+        <v>91</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>280</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>498</v>
+        <v>315</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>499</v>
+        <v>316</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>500</v>
+        <v>317</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="P57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>353</v>
+        <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>356</v>
+        <v>38</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>357</v>
+        <v>461</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>358</v>
+        <v>462</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="P58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>350</v>
+        <v>38</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>361</v>
+        <v>38</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>363</v>
+        <v>38</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP59">
+  <autoFilter ref="A1:AP58">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9102,7 +8847,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI58">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ObsPesoPediatrico.xlsx
+++ b/StructureDefinition-ObsPesoPediatrico.xlsx
@@ -452,10 +452,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>Codigos obligados por estandar</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -3295,7 +3295,7 @@
         <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>49</v>

--- a/StructureDefinition-ObsPesoPediatrico.xlsx
+++ b/StructureDefinition-ObsPesoPediatrico.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="507">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -93,7 +93,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -152,13 +152,16 @@
     <t>Event</t>
   </si>
   <si>
+    <t>clinical.diagnostics</t>
+  </si>
+  <si>
     <t>&lt; 363787002 |Observable entity|</t>
   </si>
   <si>
     <t>OBX</t>
   </si>
   <si>
-    <t>Observation[classCode=OBS, moodCode=EVN]</t>
+    <t>Entity, Role, or Act,Observation[classCode=OBS, moodCode=EVN]</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -180,7 +183,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -219,7 +222,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -241,13 +244,13 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages|5.0.0</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -270,10 +273,14 @@
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-6
+</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -293,13 +300,17 @@
     <t>Contained, inline Resources</t>
   </si>
   <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>dom-2
+dom-4dom-3dom-5</t>
   </si>
   <si>
     <t>N/A</t>
@@ -319,7 +330,7 @@
     <t>Additional content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -338,11 +349,11 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -367,13 +378,35 @@
     <t>Event.identifier</t>
   </si>
   <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>OBX-21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 3) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>FiveWs.identifier</t>
+    <t>Observation.instantiates[x]</t>
+  </si>
+  <si>
+    <t>canonical(ObservationDefinition)
+Reference(ObservationDefinition)</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR ObservationDefinition</t>
+  </si>
+  <si>
+    <t>The reference to a FHIR ObservationDefinition resource that provides the definition that is adhered to in whole or in part by this Observation instance.</t>
+  </si>
+  <si>
+    <t>ObservationDefinition can be referenced by its canonical url using instantiatesCanonical, or by a name or an identifier using the appropriate sub-elements of instantiatesReference.</t>
+  </si>
+  <si>
+    <t>Event.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
   </si>
   <si>
     <t>Observation.basedOn</t>
@@ -405,6 +438,115 @@
     <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
   </si>
   <si>
+    <t>Observation.triggeredBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Triggering observation(s)</t>
+  </si>
+  <si>
+    <t>Identifies the observation(s) that triggered the performance of this observation.</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Observation)
+</t>
+  </si>
+  <si>
+    <t>Triggering observation</t>
+  </si>
+  <si>
+    <t>Reference to the triggering observation.</t>
+  </si>
+  <si>
+    <t>outBoundRelationship</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.type</t>
+  </si>
+  <si>
+    <t>reflex | repeat | re-run</t>
+  </si>
+  <si>
+    <t>The type of trigger.
+Reflex | Repeat | Re-run.</t>
+  </si>
+  <si>
+    <t>The type of TriggeredBy Observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-triggeredbytype|5.0.0</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Observation.triggeredBy.reason</t>
+  </si>
+  <si>
+    <t>Reason that the observation was triggered</t>
+  </si>
+  <si>
+    <t>Provides the reason why this observation was performed as a result of the observation(s) referenced.</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
     <t>Observation.partOf</t>
   </si>
   <si>
@@ -412,7 +554,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy|GenomicStudy)
 </t>
   </si>
   <si>
@@ -422,7 +564,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R5/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -449,9 +591,6 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Codigos obligados por estandar</t>
   </si>
   <si>
@@ -461,6 +600,9 @@
     <t>Event.status</t>
   </si>
   <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
     <t>&lt; 445584004 |Report by finality status|</t>
   </si>
   <si>
@@ -468,9 +610,6 @@
   </si>
   <si>
     <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -492,16 +631,19 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -540,38 +682,39 @@
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
+    <t xml:space="preserve">obs-7
+</t>
+  </si>
+  <si>
     <t>Event.code</t>
   </si>
   <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
     <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
   </si>
   <si>
     <t>OBX-3</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
     <t>116680003 |Is a|</t>
   </si>
   <si>
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(Patient|Group|Device|Location|Organization|Procedure|Practitioner|Medication|Substance|BiologicallyDerivedProduct|NutritionProduct)
 </t>
   </si>
   <si>
     <t>Paciente sobre el cual se hace la medición</t>
   </si>
   <si>
-    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
-  </si>
-  <si>
-    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+    <t>The patient, or group of patients, location, device, organization, procedure or practitioner this observation is about and into whose or what record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated. The subject of an Observation may in some cases be a procedure.  This supports the regulatory inspection use case where observations are captured during inspections of a procedure that is being performed (independent of any particular patient or whether patient related at all).</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -580,13 +723,13 @@
     <t>Event.subject</t>
   </si>
   <si>
+    <t>FiveWs.subject[x]</t>
+  </si>
+  <si>
     <t>PID-3</t>
   </si>
   <si>
     <t>participation[typeCode=RTGT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
   </si>
   <si>
     <t>Observation.focus</t>
@@ -602,7 +745,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [http://hl7.org/fhir/StructureDefinition/observation-focusCode](http://hl7.org/fhir/extensions/StructureDefinition-observation-focusCode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -631,16 +774,16 @@
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
   </si>
   <si>
-    <t>Event.context</t>
+    <t>Event.encounter</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
   </si>
   <si>
     <t>PV1</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
   </si>
   <si>
     <t>Observation.effective[x]</t>
@@ -660,7 +803,7 @@
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R5/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -669,13 +812,13 @@
     <t>Event.occurrence[x]</t>
   </si>
   <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
     <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
   </si>
   <si>
     <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
   </si>
   <si>
     <t>Observation.issued</t>
@@ -691,16 +834,16 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
-  </si>
-  <si>
-    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+    <t>For Observations that don't require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R5/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn't require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>OBR-22 (or MSH-7), or perhaps OBX-19 (depends on who observation made)</t>
   </si>
   <si>
     <t>participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
   </si>
   <si>
     <t>Observation.performer</t>
@@ -722,20 +865,20 @@
     <t>Event.performer.actor</t>
   </si>
   <si>
-    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>OBX-15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
   </si>
   <si>
     <t>participation[typeCode=PRF]</t>
   </si>
   <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
     <t>Observation.value[x]</t>
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence)</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -744,7 +887,15 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>- An observation may have:
+  1.  a single value here
+  1.  both a value and a set of related or component values
+  1.  only a set of related or component values.
+-  If a value is present, the datatype for this element should be determined by the `code`.
+-  *CodeableConcept* with just a text would be used instead of a string if the field was usually coded, or if the type associated with the `code` defines a coded value.
+-  *Attachment* is used if the observation result value is a binary file such as an image.  If the observation result value is derived from the binary file (for example 'X' detected and here is the the proof in this image), the binary file may be directly represented using *DocumentReference* and referenced by `derivedFrom`.
+- The usage of valueReference is restricted to the MolecularSequence resource when used as a definitional resource, not as a patient-specific finding. .
+- For additional guidance, see the [Notes section](http://hl7.org/fhir/R5/observation.html#notes) below.</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -757,14 +908,14 @@
     <t>open</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-7
-</t>
+    <t>obs-7
+obs-6</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
   </si>
   <si>
-    <t>OBX.2, OBX.5, OBX.6</t>
+    <t>OBX-2, OBX-5, OBX-6</t>
   </si>
   <si>
     <t>value</t>
@@ -792,29 +943,10 @@
     <t>Observation.value[x].id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueQuantity.extension</t>
   </si>
   <si>
     <t>Observation.value[x].extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -824,9 +956,6 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueQuantity.value</t>
   </si>
   <si>
@@ -864,7 +993,7 @@
     <t>Observation.value[x].comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+    <t>&lt; | &lt;= | &gt;= | &gt; | ad - how to understand the value</t>
   </si>
   <si>
     <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
@@ -879,7 +1008,7 @@
     <t>How the Quantity should be understood and represented.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|5.0.0</t>
   </si>
   <si>
     <t>Quantity.comparator</t>
@@ -1009,7 +1138,7 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
+    <t>High, low, normal, etc</t>
   </si>
   <si>
     <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
@@ -1058,7 +1187,7 @@
     <t>Need to be able to provide free text additional information.</t>
   </si>
   <si>
-    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
+    <t>NTE-3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
   </si>
   <si>
     <t>subjectOf.observationEvent[code="annotation"].value</t>
@@ -1073,16 +1202,19 @@
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.</t>
+  </si>
+  <si>
+    <t>SNOMED CT Body site concepts</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
+    <t xml:space="preserve">obs-8
+</t>
+  </si>
+  <si>
     <t>&lt; 123037004 |Body structure|</t>
   </si>
   <si>
@@ -1095,6 +1227,22 @@
     <t>718497002 |Inherent location|</t>
   </si>
   <si>
+    <t>Observation.bodyStructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(BodyStructure)
+</t>
+  </si>
+  <si>
+    <t>Observed body structure</t>
+  </si>
+  <si>
+    <t>Indicates the body structure on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code or bodySite is used. In many systems, this may be represented as a related observation instead of an inline component.</t>
+  </si>
+  <si>
     <t>Observation.method</t>
   </si>
   <si>
@@ -1125,7 +1273,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|Group)
 </t>
   </si>
   <si>
@@ -1136,6 +1284,10 @@
   </si>
   <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+obs-9:If Observation.specimen is a reference to Group, the group can only have specimens {(reference.resolve().exists() and reference.resolve() is Group) implies reference.resolve().member.entity.resolve().all($this is Specimen)}</t>
   </si>
   <si>
     <t>&lt; 123038009 |Specimen|</t>
@@ -1157,10 +1309,10 @@
 </t>
   </si>
   <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.</t>
+    <t>A reference to the device that generates the measurements or the device settings for the device</t>
+  </si>
+  <si>
+    <t>A reference to the device that generates the measurements or the device settings for the device.</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
@@ -1179,10 +1331,6 @@
   </si>
   <si>
     <t>Observation.referenceRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
   </si>
   <si>
     <t>Provides guide for interpretation</t>
@@ -1201,7 +1349,7 @@
 obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
   </si>
   <si>
-    <t>OBX.7</t>
+    <t>OBX-7</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
@@ -1214,20 +1362,6 @@
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
     <t>Observation.referenceRange.low</t>
@@ -1247,9 +1381,6 @@
 </t>
   </si>
   <si>
-    <t>OBX-7</t>
-  </si>
-  <si>
     <t>value:IVL_PQ.low</t>
   </si>
   <si>
@@ -1263,6 +1394,24 @@
   </si>
   <si>
     <t>value:IVL_PQ.high</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.normalValue</t>
+  </si>
+  <si>
+    <t>Normal value, if relevant</t>
+  </si>
+  <si>
+    <t>The value of the normal value of the reference range.</t>
+  </si>
+  <si>
+    <t>Codes identifying the normal value of the observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-referencerange-normalvalue</t>
+  </si>
+  <si>
+    <t>value:IVL_PQ.normal</t>
   </si>
   <si>
     <t>Observation.referenceRange.type</t>
@@ -1341,6 +1490,10 @@
     <t>Observation.referenceRange.text</t>
   </si>
   <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
     <t>Text based reference range in an observation</t>
   </si>
   <si>
@@ -1363,29 +1516,26 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R5/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R5/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
   </si>
   <si>
-    <t>outBoundRelationship</t>
-  </si>
-  <si>
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|ImagingSelection|QuestionnaireResponse|Observation|MolecularSequence|GenomicStudy)
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from</t>
+    <t>Related resource from which the observation is made</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R5/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1400,7 +1550,7 @@
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R5/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -1443,7 +1593,16 @@
     <t>Actual component result</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>Used when observation has a set of component observations:
+-  An observation may have both a value (e.g. an  Apgar score) and component observations (the observations from which the Apgar score was derived). 
+-  If a value is present, the datatype for this element should be determined by the `code`.
+-  *CodeableConcept* with just a text would be used instead of a string if the field was usually coded, or if the type associated with the `code` defines a coded value.
+-  *Attachment* is used if the observation result value is a binary file such as an image.  If the observation result value is derived from the binary file (for example 'X' detected and here is the the proof in this image), the binary file may be directly represented using *DocumentReference* and referenced by `derivedFrom`.
+- If a value is present, the datatype for this element should be determined by the `code`.
+-  *CodeableConcept* with just a text would be used instead of a string if the field was usually coded, or if the type associated with the `code` defines a coded value.
+-  *Attachment* is used if the observation result value is a binary file such as an image.  If the observation result value is derived from the binary file (for example 'X' detected and here is the the proof in this image), the binary file may be directly represented using *DocumentReference* and referenced by `derivedFrom`.
+- The usage of valueReference is restricted to the MolecularSequence resource when used as a definitional resource, not as a patient-specific finding. .
+- For additional guidance, see the [Notes section](http://hl7.org/fhir/R5/observation.html#notes) below.</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -1785,7 +1944,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP58"/>
+  <dimension ref="A1:AP68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1803,7 +1962,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="137.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1818,7 +1977,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="10.67578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -1828,11 +1987,11 @@
     <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.0859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="16.20703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="17.640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="103.87890625" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="30.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1950,7 +2109,7 @@
         <v>46</v>
       </c>
       <c r="AO1" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AP1" t="s" s="2">
         <v>38</v>
@@ -1958,10 +2117,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1972,7 +2131,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1981,19 +2140,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2043,13 +2202,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2078,10 +2237,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2092,7 +2251,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2101,16 +2260,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2161,19 +2320,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2196,10 +2355,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2210,28 +2369,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2281,19 +2440,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2316,10 +2475,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2330,7 +2489,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2342,16 +2501,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2377,13 +2536,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2401,19 +2560,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2436,21 +2595,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2462,16 +2621,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2521,19 +2680,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2545,10 +2704,10 @@
         <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AP6" t="s" s="2">
         <v>38</v>
@@ -2556,14 +2715,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2582,16 +2741,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2641,7 +2800,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2650,7 +2809,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>38</v>
@@ -2665,10 +2824,10 @@
         <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>38</v>
@@ -2676,14 +2835,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2702,16 +2861,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2761,7 +2920,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2773,7 +2932,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2785,10 +2944,10 @@
         <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>38</v>
@@ -2796,14 +2955,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2816,25 +2975,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2883,7 +3042,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2895,7 +3054,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2907,10 +3066,10 @@
         <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>38</v>
@@ -2918,10 +3077,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2941,20 +3100,20 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -3003,7 +3162,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3015,22 +3174,22 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>38</v>
@@ -3038,21 +3197,21 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3061,21 +3220,21 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>38</v>
       </c>
@@ -3123,34 +3282,34 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>38</v>
@@ -3158,14 +3317,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3181,21 +3340,21 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
       </c>
@@ -3243,7 +3402,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3255,22 +3414,22 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>38</v>
@@ -3278,10 +3437,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3289,35 +3448,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O13" t="s" s="2">
         <v>136</v>
       </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>38</v>
       </c>
@@ -3341,13 +3496,13 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -3365,34 +3520,34 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>38</v>
@@ -3400,10 +3555,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3414,7 +3569,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3426,20 +3581,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>38</v>
       </c>
@@ -3463,13 +3614,13 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -3487,19 +3638,19 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -3511,10 +3662,10 @@
         <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>38</v>
@@ -3522,46 +3673,44 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>38</v>
       </c>
@@ -3570,7 +3719,7 @@
         <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>38</v>
@@ -3585,13 +3734,13 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>38</v>
@@ -3609,80 +3758,80 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>170</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3731,34 +3880,34 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>38</v>
@@ -3766,10 +3915,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3777,10 +3926,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3789,20 +3938,18 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3851,19 +3998,19 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -3872,13 +4019,13 @@
         <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>38</v>
@@ -3886,21 +4033,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3909,23 +4056,19 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>38</v>
       </c>
@@ -3949,13 +4092,13 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -3973,34 +4116,34 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>38</v>
@@ -4008,21 +4151,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -4031,23 +4174,19 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>38</v>
       </c>
@@ -4095,34 +4234,34 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>38</v>
@@ -4130,21 +4269,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -4153,19 +4292,19 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4215,34 +4354,34 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>38</v>
@@ -4250,10 +4389,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4261,32 +4400,34 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4311,13 +4452,13 @@
         <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>38</v>
@@ -4335,34 +4476,34 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>38</v>
@@ -4370,10 +4511,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4384,7 +4525,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4393,22 +4534,22 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4433,104 +4574,104 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AC22" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>238</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4540,7 +4681,7 @@
         <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>38</v>
@@ -4555,13 +4696,13 @@
         <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>38</v>
@@ -4579,45 +4720,45 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4625,10 +4766,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4637,19 +4778,23 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
       </c>
@@ -4697,34 +4842,34 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>38</v>
@@ -4732,14 +4877,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4755,19 +4900,19 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4805,19 +4950,19 @@
         <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4829,22 +4974,22 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>38</v>
@@ -4852,45 +4997,45 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4939,34 +5084,34 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>38</v>
@@ -4974,121 +5119,121 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>243</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="J27" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="P27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>38</v>
@@ -5096,10 +5241,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5107,33 +5252,33 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>38</v>
       </c>
@@ -5181,34 +5326,34 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>38</v>
@@ -5216,10 +5361,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5227,39 +5372,39 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>62</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>38</v>
@@ -5301,34 +5446,34 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>38</v>
@@ -5336,10 +5481,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5347,41 +5492,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>38</v>
@@ -5411,31 +5556,29 @@
         <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -5444,26 +5587,28 @@
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>38</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>38</v>
       </c>
@@ -5472,31 +5617,31 @@
         <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>146</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5521,13 +5666,13 @@
         <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>309</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>38</v>
@@ -5545,19 +5690,19 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -5566,35 +5711,35 @@
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>38</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5606,20 +5751,16 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
+        <v>139</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>38</v>
       </c>
@@ -5643,13 +5784,13 @@
         <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>319</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>320</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>38</v>
@@ -5667,49 +5808,49 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>313</v>
+        <v>141</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>321</v>
+        <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>324</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5728,20 +5869,18 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>326</v>
+        <v>97</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>327</v>
+        <v>98</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>328</v>
+        <v>145</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>38</v>
       </c>
@@ -5777,19 +5916,19 @@
         <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>291</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>292</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>325</v>
+        <v>146</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5801,7 +5940,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -5810,13 +5949,13 @@
         <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>38</v>
@@ -5824,10 +5963,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5835,33 +5974,35 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>146</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
       </c>
@@ -5885,13 +6026,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>337</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>338</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -5909,45 +6050,45 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>339</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>340</v>
+        <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>342</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5958,36 +6099,36 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="Q35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="R35" t="s" s="2">
         <v>38</v>
       </c>
@@ -6007,13 +6148,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -6031,19 +6172,19 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
@@ -6052,13 +6193,13 @@
         <v>38</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>350</v>
+        <v>38</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>38</v>
@@ -6066,10 +6207,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6077,33 +6218,33 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>353</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
       </c>
@@ -6151,45 +6292,45 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>357</v>
+        <v>38</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>38</v>
+        <v>321</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>360</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6197,39 +6338,39 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>362</v>
+        <v>63</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>327</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>38</v>
@@ -6271,45 +6412,45 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>329</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>366</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>367</v>
+        <v>38</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>369</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6317,41 +6458,41 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>371</v>
+        <v>69</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>337</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>38</v>
@@ -6393,19 +6534,19 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>329</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>376</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
@@ -6414,13 +6555,13 @@
         <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>377</v>
+        <v>38</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>38</v>
+        <v>339</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>38</v>
@@ -6428,10 +6569,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6442,7 +6583,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6454,16 +6595,20 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>246</v>
+        <v>341</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
       </c>
@@ -6487,13 +6632,13 @@
         <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>345</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>346</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>347</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>38</v>
@@ -6511,19 +6656,19 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>248</v>
+        <v>340</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -6535,10 +6680,10 @@
         <v>38</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>38</v>
+        <v>349</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>38</v>
@@ -6546,14 +6691,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>93</v>
+        <v>351</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6572,18 +6717,20 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>95</v>
+        <v>352</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>252</v>
+        <v>353</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6607,13 +6754,13 @@
         <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>38</v>
+        <v>345</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>38</v>
+        <v>356</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>38</v>
+        <v>357</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>38</v>
@@ -6631,7 +6778,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>255</v>
+        <v>350</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
@@ -6643,7 +6790,7 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -6652,28 +6799,28 @@
         <v>38</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>38</v>
+        <v>358</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>249</v>
+        <v>359</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>38</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>382</v>
+        <v>38</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6686,25 +6833,25 @@
         <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>94</v>
+        <v>363</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>97</v>
+        <v>366</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>103</v>
+        <v>367</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6753,7 +6900,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -6765,7 +6912,7 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -6777,10 +6924,10 @@
         <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>91</v>
+        <v>368</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>38</v>
@@ -6788,10 +6935,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6802,7 +6949,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6814,15 +6961,17 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>387</v>
+        <v>189</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6847,13 +6996,13 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>38</v>
+        <v>375</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>38</v>
@@ -6871,19 +7020,19 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -6892,24 +7041,24 @@
         <v>38</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>38</v>
+        <v>379</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>38</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6920,7 +7069,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -6932,15 +7081,17 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6989,19 +7140,19 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
@@ -7010,13 +7161,13 @@
         <v>38</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>396</v>
+        <v>38</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>38</v>
+        <v>379</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>38</v>
@@ -7024,10 +7175,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7038,7 +7189,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -7050,19 +7201,19 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -7087,13 +7238,13 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -7111,34 +7262,34 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>404</v>
+        <v>38</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>405</v>
+        <v>38</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>323</v>
+        <v>393</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>38</v>
@@ -7146,10 +7297,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7160,7 +7311,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -7172,20 +7323,18 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>146</v>
+        <v>396</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>38</v>
       </c>
@@ -7209,13 +7358,13 @@
         <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>411</v>
+        <v>38</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>412</v>
+        <v>38</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>38</v>
@@ -7233,45 +7382,45 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7282,7 +7431,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7294,18 +7443,18 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>38</v>
       </c>
@@ -7353,45 +7502,45 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7402,7 +7551,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7414,16 +7563,20 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
       </c>
@@ -7471,20 +7624,20 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
@@ -7492,13 +7645,13 @@
         <v>38</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>38</v>
+        <v>421</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>38</v>
@@ -7506,10 +7659,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7520,7 +7673,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7529,20 +7682,18 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>424</v>
+        <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>425</v>
+        <v>139</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7591,19 +7742,19 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>423</v>
+        <v>141</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
@@ -7612,13 +7763,13 @@
         <v>38</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>428</v>
+        <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>429</v>
+        <v>38</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>38</v>
@@ -7626,14 +7777,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7649,19 +7800,19 @@
         <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>431</v>
+        <v>97</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>432</v>
+        <v>98</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>433</v>
+        <v>145</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>434</v>
+        <v>100</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7711,7 +7862,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>430</v>
+        <v>146</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7723,7 +7874,7 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -7732,13 +7883,13 @@
         <v>38</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>428</v>
+        <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>435</v>
+        <v>38</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>38</v>
@@ -7746,14 +7897,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7766,25 +7917,25 @@
         <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>371</v>
+        <v>97</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>437</v>
+        <v>149</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>438</v>
+        <v>150</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>439</v>
+        <v>100</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>440</v>
+        <v>106</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7833,7 +7984,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>436</v>
+        <v>151</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7845,7 +7996,7 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -7854,13 +8005,13 @@
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>441</v>
+        <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>442</v>
+        <v>38</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>38</v>
@@ -7868,10 +8019,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7882,7 +8033,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7894,13 +8045,13 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>245</v>
+        <v>426</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>246</v>
+        <v>427</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>247</v>
+        <v>428</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7951,19 +8102,19 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>248</v>
+        <v>425</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
@@ -7975,10 +8126,10 @@
         <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>249</v>
+        <v>420</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>38</v>
+        <v>430</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>38</v>
@@ -7986,21 +8137,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -8012,17 +8163,15 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>94</v>
+        <v>426</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>95</v>
+        <v>432</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -8071,19 +8220,19 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
@@ -8095,10 +8244,10 @@
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>249</v>
+        <v>420</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>38</v>
+        <v>434</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>38</v>
@@ -8106,46 +8255,42 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>382</v>
+        <v>38</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>38</v>
       </c>
@@ -8169,13 +8314,13 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>38</v>
+        <v>345</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
@@ -8193,19 +8338,19 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -8217,10 +8362,10 @@
         <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>91</v>
+        <v>420</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>38</v>
@@ -8228,10 +8373,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8239,10 +8384,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -8251,22 +8396,22 @@
         <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>160</v>
+        <v>445</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8291,13 +8436,13 @@
         <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>163</v>
+        <v>446</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>164</v>
+        <v>447</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>38</v>
@@ -8315,34 +8460,34 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>450</v>
+        <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>167</v>
+        <v>448</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>168</v>
+        <v>449</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>169</v>
+        <v>360</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>38</v>
@@ -8350,10 +8495,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8364,7 +8509,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8373,22 +8518,22 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>453</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>231</v>
+        <v>454</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -8413,13 +8558,13 @@
         <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>38</v>
+        <v>455</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>38</v>
+        <v>456</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>38</v>
@@ -8437,45 +8582,45 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>454</v>
+        <v>38</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>236</v>
+        <v>448</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>237</v>
+        <v>449</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>38</v>
+        <v>360</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>238</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8486,7 +8631,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8498,19 +8643,17 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>146</v>
+        <v>458</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>307</v>
+        <v>461</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -8535,13 +8678,13 @@
         <v>38</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>309</v>
+        <v>38</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>38</v>
@@ -8559,19 +8702,19 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>311</v>
+        <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -8580,13 +8723,13 @@
         <v>38</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>312</v>
+        <v>38</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>38</v>
+        <v>462</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>38</v>
@@ -8594,21 +8737,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -8620,20 +8763,16 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>146</v>
+        <v>464</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>315</v>
+        <v>465</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>38</v>
       </c>
@@ -8657,13 +8796,13 @@
         <v>38</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>319</v>
+        <v>38</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>320</v>
+        <v>38</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>38</v>
@@ -8681,45 +8820,45 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>321</v>
+        <v>38</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>323</v>
+        <v>420</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>38</v>
+        <v>467</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>324</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8739,23 +8878,21 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>39</v>
+        <v>469</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>38</v>
       </c>
@@ -8803,7 +8940,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -8815,7 +8952,7 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -8824,20 +8961,1232 @@
         <v>38</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>377</v>
+        <v>38</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>378</v>
+        <v>473</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="AP58" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AP68" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP58">
+  <autoFilter ref="A1:AP68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8847,7 +10196,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ObsPesoPediatrico.xlsx
+++ b/StructureDefinition-ObsPesoPediatrico.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-ObsPesoPediatrico.xlsx
+++ b/StructureDefinition-ObsPesoPediatrico.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.component.code is the same as Observation.code, then Observation.value SHALL NOT be present (the Observation.component.value[x] holds the value). {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-8:bodyStructure SHALL only be present if Observation.bodySite is not present {bodySite.exists() implies bodyStructure.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -704,7 +708,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location|Organization|Procedure|Practitioner|Medication|Substance|BiologicallyDerivedProduct|NutritionProduct)
+    <t xml:space="preserve">Reference(https://hospitallaflorida.cl/fhir/hlfhosp/StructureDefinition/PacienteHLF)
 </t>
   </si>
   <si>
@@ -1953,16 +1957,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.96484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="137.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="121.70703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1971,28 +1975,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.67578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="17.640625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="17.8984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="245.78125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="30.00390625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="102.73828125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="29.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2094,22 +2098,22 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AO1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP1" t="s" s="2">
         <v>38</v>
@@ -2117,10 +2121,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2131,7 +2135,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2140,19 +2144,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2202,13 +2206,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2237,10 +2241,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2251,7 +2255,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2260,16 +2264,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2320,19 +2324,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2355,10 +2359,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2369,28 +2373,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2440,19 +2444,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2475,10 +2479,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2489,7 +2493,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2501,16 +2505,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2536,13 +2540,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2560,19 +2564,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2595,21 +2599,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2621,16 +2625,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2680,19 +2684,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2707,7 +2711,7 @@
         <v>38</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AP6" t="s" s="2">
         <v>38</v>
@@ -2715,14 +2719,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2741,16 +2745,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2800,7 +2804,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2809,7 +2813,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>38</v>
@@ -2827,7 +2831,7 @@
         <v>38</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>38</v>
@@ -2835,14 +2839,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2861,16 +2865,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2920,7 +2924,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2932,7 +2936,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2947,7 +2951,7 @@
         <v>38</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>38</v>
@@ -2955,14 +2959,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2975,25 +2979,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -3042,7 +3046,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -3054,7 +3058,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -3069,7 +3073,7 @@
         <v>38</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>38</v>
@@ -3077,10 +3081,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3100,20 +3104,20 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -3162,7 +3166,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3174,22 +3178,22 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>38</v>
@@ -3197,10 +3201,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3211,7 +3215,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -3220,19 +3224,19 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3282,22 +3286,22 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>38</v>
@@ -3309,7 +3313,7 @@
         <v>38</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>38</v>
@@ -3317,14 +3321,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3340,20 +3344,20 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -3402,7 +3406,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3414,10 +3418,10 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>38</v>
@@ -3426,10 +3430,10 @@
         <v>38</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>38</v>
@@ -3437,10 +3441,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3463,13 +3467,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3520,7 +3524,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -3532,7 +3536,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -3544,10 +3548,10 @@
         <v>38</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>38</v>
@@ -3555,10 +3559,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3569,7 +3573,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3581,13 +3585,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3638,16 +3642,16 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>38</v>
@@ -3665,7 +3669,7 @@
         <v>38</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>38</v>
@@ -3673,14 +3677,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3699,16 +3703,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3758,7 +3762,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3770,7 +3774,7 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
@@ -3785,7 +3789,7 @@
         <v>38</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>38</v>
@@ -3793,14 +3797,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3813,25 +3817,25 @@
         <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3880,7 +3884,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3892,7 +3896,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3907,7 +3911,7 @@
         <v>38</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>38</v>
@@ -3915,10 +3919,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3926,10 +3930,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3938,16 +3942,16 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3998,19 +4002,19 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -4025,7 +4029,7 @@
         <v>38</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>38</v>
@@ -4033,10 +4037,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4044,10 +4048,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -4056,16 +4060,16 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4092,13 +4096,13 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -4116,19 +4120,19 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -4143,7 +4147,7 @@
         <v>38</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>38</v>
@@ -4151,10 +4155,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4165,7 +4169,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -4177,13 +4181,13 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4234,19 +4238,19 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -4261,7 +4265,7 @@
         <v>38</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>38</v>
@@ -4269,14 +4273,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4292,19 +4296,19 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4354,7 +4358,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4366,10 +4370,10 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>38</v>
@@ -4378,10 +4382,10 @@
         <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>38</v>
@@ -4389,10 +4393,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4400,34 +4404,34 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4452,13 +4456,13 @@
         <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>38</v>
@@ -4476,34 +4480,34 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>38</v>
@@ -4511,10 +4515,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4537,19 +4541,19 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4574,13 +4578,13 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>38</v>
@@ -4598,7 +4602,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -4610,13 +4614,13 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
@@ -4625,7 +4629,7 @@
         <v>38</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>38</v>
@@ -4633,45 +4637,45 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>38</v>
@@ -4681,7 +4685,7 @@
         <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>38</v>
@@ -4696,13 +4700,13 @@
         <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>38</v>
@@ -4720,45 +4724,45 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4766,10 +4770,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4778,22 +4782,22 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4842,34 +4846,34 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>38</v>
@@ -4877,10 +4881,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4900,19 +4904,19 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4962,7 +4966,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4974,22 +4978,22 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>38</v>
@@ -4997,21 +5001,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -5020,22 +5024,22 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -5084,34 +5088,34 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>38</v>
@@ -5119,21 +5123,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -5142,22 +5146,22 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -5206,34 +5210,34 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>38</v>
@@ -5241,10 +5245,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5255,7 +5259,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -5264,19 +5268,19 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5326,34 +5330,34 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>38</v>
@@ -5361,10 +5365,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5384,20 +5388,20 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5446,7 +5450,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5458,22 +5462,22 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>38</v>
@@ -5481,10 +5485,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5495,7 +5499,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5504,22 +5508,22 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5556,29 +5560,29 @@
         <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -5587,27 +5591,27 @@
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>38</v>
@@ -5617,31 +5621,31 @@
         <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5690,19 +5694,19 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -5711,24 +5715,24 @@
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5739,7 +5743,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5751,13 +5755,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5808,16 +5812,16 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>38</v>
@@ -5835,7 +5839,7 @@
         <v>38</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>38</v>
@@ -5843,14 +5847,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5869,16 +5873,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5916,19 +5920,19 @@
         <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5940,7 +5944,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -5955,7 +5959,7 @@
         <v>38</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>38</v>
@@ -5963,10 +5967,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5974,34 +5978,34 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -6050,19 +6054,19 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -6074,10 +6078,10 @@
         <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>38</v>
@@ -6085,10 +6089,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6099,35 +6103,35 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>38</v>
@@ -6148,13 +6152,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -6172,19 +6176,19 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
@@ -6196,10 +6200,10 @@
         <v>38</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>38</v>
@@ -6207,10 +6211,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6218,32 +6222,32 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -6292,19 +6296,19 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -6316,10 +6320,10 @@
         <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>38</v>
@@ -6327,10 +6331,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6338,39 +6342,39 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>38</v>
@@ -6412,19 +6416,19 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -6436,10 +6440,10 @@
         <v>38</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>38</v>
@@ -6447,10 +6451,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6458,41 +6462,41 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>38</v>
@@ -6534,19 +6538,19 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
@@ -6558,10 +6562,10 @@
         <v>38</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>38</v>
@@ -6569,10 +6573,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6583,7 +6587,7 @@
         <v>36</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6595,19 +6599,19 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -6632,13 +6636,13 @@
         <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>38</v>
@@ -6656,19 +6660,19 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -6680,10 +6684,10 @@
         <v>38</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>38</v>
@@ -6691,14 +6695,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6717,19 +6721,19 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6754,13 +6758,13 @@
         <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>38</v>
@@ -6778,7 +6782,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
@@ -6790,7 +6794,7 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -6799,24 +6803,24 @@
         <v>38</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6839,19 +6843,19 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6900,7 +6904,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -6912,7 +6916,7 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -6924,10 +6928,10 @@
         <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>38</v>
@@ -6935,10 +6939,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6949,7 +6953,7 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6961,16 +6965,16 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6996,13 +7000,13 @@
         <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>38</v>
@@ -7020,19 +7024,19 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
@@ -7041,24 +7045,24 @@
         <v>38</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7069,7 +7073,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
@@ -7081,16 +7085,16 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7140,19 +7144,19 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
@@ -7167,7 +7171,7 @@
         <v>38</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>38</v>
@@ -7175,10 +7179,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7189,7 +7193,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -7201,19 +7205,19 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -7238,13 +7242,13 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -7262,19 +7266,19 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
@@ -7286,10 +7290,10 @@
         <v>38</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>38</v>
@@ -7297,10 +7301,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7311,7 +7315,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -7323,16 +7327,16 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7382,19 +7386,19 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
@@ -7403,24 +7407,24 @@
         <v>38</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7431,7 +7435,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -7443,16 +7447,16 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7502,19 +7506,19 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
@@ -7523,24 +7527,24 @@
         <v>38</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7563,19 +7567,19 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7624,7 +7628,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -7636,7 +7640,7 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
@@ -7648,10 +7652,10 @@
         <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>38</v>
@@ -7659,10 +7663,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7673,7 +7677,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7685,13 +7689,13 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7742,16 +7746,16 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>38</v>
@@ -7769,7 +7773,7 @@
         <v>38</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>38</v>
@@ -7777,14 +7781,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7803,16 +7807,16 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7862,7 +7866,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7874,7 +7878,7 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -7889,7 +7893,7 @@
         <v>38</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>38</v>
@@ -7897,14 +7901,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7917,25 +7921,25 @@
         <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7984,7 +7988,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7996,7 +8000,7 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -8011,7 +8015,7 @@
         <v>38</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>38</v>
@@ -8019,10 +8023,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8033,7 +8037,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -8045,13 +8049,13 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8102,19 +8106,19 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
@@ -8126,10 +8130,10 @@
         <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>38</v>
@@ -8137,10 +8141,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8151,7 +8155,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -8163,13 +8167,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8220,19 +8224,19 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
@@ -8244,10 +8248,10 @@
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>38</v>
@@ -8255,10 +8259,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8269,7 +8273,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -8281,13 +8285,13 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8314,13 +8318,13 @@
         <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>38</v>
@@ -8338,19 +8342,19 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -8362,10 +8366,10 @@
         <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>38</v>
@@ -8373,10 +8377,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8387,7 +8391,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -8399,19 +8403,19 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8436,13 +8440,13 @@
         <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>38</v>
@@ -8460,19 +8464,19 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -8481,13 +8485,13 @@
         <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>38</v>
@@ -8495,10 +8499,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8521,19 +8525,19 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -8558,13 +8562,13 @@
         <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>38</v>
@@ -8582,7 +8586,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -8594,7 +8598,7 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -8603,13 +8607,13 @@
         <v>38</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>38</v>
@@ -8617,10 +8621,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8631,7 +8635,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8643,17 +8647,17 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -8702,19 +8706,19 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -8729,7 +8733,7 @@
         <v>38</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>38</v>
@@ -8737,10 +8741,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8751,7 +8755,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -8763,13 +8767,13 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8820,19 +8824,19 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -8844,10 +8848,10 @@
         <v>38</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>38</v>
@@ -8855,10 +8859,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8878,19 +8882,19 @@
         <v>38</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8940,7 +8944,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -8952,7 +8956,7 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -8964,10 +8968,10 @@
         <v>38</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>38</v>
@@ -8975,10 +8979,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8998,19 +9002,19 @@
         <v>38</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9060,7 +9064,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -9072,7 +9076,7 @@
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -9084,10 +9088,10 @@
         <v>38</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>38</v>
@@ -9095,10 +9099,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9118,22 +9122,22 @@
         <v>38</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -9182,7 +9186,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9191,10 +9195,10 @@
         <v>37</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -9206,10 +9210,10 @@
         <v>38</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>38</v>
@@ -9217,10 +9221,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9231,7 +9235,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -9243,13 +9247,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9300,16 +9304,16 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>38</v>
@@ -9327,7 +9331,7 @@
         <v>38</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>38</v>
@@ -9335,14 +9339,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9361,16 +9365,16 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9420,7 +9424,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -9432,7 +9436,7 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -9447,7 +9451,7 @@
         <v>38</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>38</v>
@@ -9455,14 +9459,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9475,25 +9479,25 @@
         <v>38</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>38</v>
@@ -9542,7 +9546,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -9554,7 +9558,7 @@
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
@@ -9569,7 +9573,7 @@
         <v>38</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>38</v>
@@ -9577,10 +9581,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9588,10 +9592,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -9600,22 +9604,22 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>38</v>
@@ -9640,13 +9644,13 @@
         <v>38</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>38</v>
@@ -9664,34 +9668,34 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>38</v>
@@ -9699,10 +9703,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9713,7 +9717,7 @@
         <v>36</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -9722,22 +9726,22 @@
         <v>38</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9786,19 +9790,19 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
@@ -9807,24 +9811,24 @@
         <v>38</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9835,7 +9839,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9847,19 +9851,19 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>38</v>
@@ -9884,13 +9888,13 @@
         <v>38</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>38</v>
@@ -9908,19 +9912,19 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
@@ -9932,10 +9936,10 @@
         <v>38</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>38</v>
@@ -9943,14 +9947,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9969,19 +9973,19 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>38</v>
@@ -10006,13 +10010,13 @@
         <v>38</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>38</v>
@@ -10030,7 +10034,7 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -10042,7 +10046,7 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
@@ -10051,24 +10055,24 @@
         <v>38</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10094,16 +10098,16 @@
         <v>39</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -10152,7 +10156,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
@@ -10164,7 +10168,7 @@
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
@@ -10176,10 +10180,10 @@
         <v>38</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>38</v>
